--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5733CC8-6BEE-484B-8157-6FED32DF692C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EF77EE-0D1D-4A19-82F6-696BF66C8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,187 +1059,187 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2.589</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>5.2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>10.446</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>2.589</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>43</v>
+      <c r="A25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>45</v>
+      <c r="A26" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>10.446</v>
+        <v>0.33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>46</v>
+      <c r="A27" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>48</v>
+      <c r="A28" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B28">
-        <v>2.8839999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>49</v>
+      <c r="A29" t="s">
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>0.33</v>
+        <v>1.492</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>69</v>
+      <c r="A31" t="s">
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>70</v>
+      <c r="A32" t="s">
+        <v>54</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>51</v>
+      <c r="A33" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>0.52900000000000003</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B34">
-        <v>1.492</v>
+        <v>0</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>53</v>
+      <c r="A35" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>54</v>
+      <c r="A36" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>4.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>19</v>
@@ -1247,231 +1247,231 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37">
-        <v>2.8839999999999999</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="10">
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39">
-        <v>0.33</v>
+        <v>61</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.36499999999999999</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40">
-        <v>0.05</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="10">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="10">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B40" s="10">
         <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>-2.18378662E-2</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>0.43606477249999998</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>-0.56312854999999995</v>
+      </c>
       <c r="C44" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1.5</v>
+      <c r="A45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>-0.261519</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
-        <v>64</v>
+      <c r="A46" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>-2.18378662E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10" t="s">
-        <v>65</v>
+      <c r="A47" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>0.43606477249999998</v>
+        <v>0</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="10" t="s">
-        <v>66</v>
+      <c r="A48" t="s">
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>-0.56312854999999995</v>
+        <v>0</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>67</v>
+      <c r="A49" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B49">
-        <v>-0.261519</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>19</v>
+        <v>0.498</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
-        <v>68</v>
+      <c r="A50" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B50">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>19</v>
+        <v>0.498</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>71</v>
+      <c r="A51" t="s">
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>19</v>
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>73</v>
+      <c r="A53" t="s">
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>0.498</v>
-      </c>
-      <c r="C53" s="1" t="s">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>74</v>
+      <c r="A54" t="s">
+        <v>80</v>
       </c>
       <c r="B54">
-        <v>0.498</v>
-      </c>
-      <c r="C54" s="1" t="s">
+        <v>0.154</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>0.14069999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>0.90800000000000003</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
@@ -1479,98 +1479,98 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B58">
-        <v>0.154</v>
+        <v>0.627</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B59">
-        <v>1.9E-2</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>82</v>
+      <c r="A60" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B60">
-        <v>1.63</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B61">
-        <v>2.5379999999999998</v>
+        <v>3.64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>0.627</v>
+        <v>0.42</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B63">
-        <v>0.97599999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
-        <v>87</v>
+      <c r="A64" t="s">
+        <v>92</v>
       </c>
       <c r="B64">
-        <v>9.1300000000000006E-2</v>
+        <v>0.15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B65">
-        <v>3.64</v>
+        <v>0.18</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B66">
-        <v>0.42</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>44</v>
@@ -1578,131 +1578,132 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B67">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B68">
-        <v>0.15</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B69">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B70">
-        <v>1.6379999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B72">
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B74">
-        <v>0.2</v>
+        <v>1.49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B75">
-        <v>0.12</v>
+        <f>B66+B74</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B77">
-        <v>0.25</v>
+        <v>0.748</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B78">
-        <v>1.49</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>44</v>
@@ -1710,77 +1711,76 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B79">
-        <f>B70+B78</f>
-        <v>3.1280000000000001</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B80">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B81">
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B82">
-        <v>0.31359999999999999</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B83">
-        <v>0.39290000000000003</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>99</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>99</v>
@@ -1799,32 +1799,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>99</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B90">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>99</v>
@@ -1843,57 +1843,57 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B91">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="A92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>99</v>
+      <c r="A93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>99</v>
+      <c r="A94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>34</v>
+      <c r="A95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1912,6 +1912,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2069,12 +2075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2084,6 +2084,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2099,13 +2108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EF77EE-0D1D-4A19-82F6-696BF66C8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9800A5-E617-4A24-A1F8-801268D9D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1692,7 +1692,7 @@
         <v>108</v>
       </c>
       <c r="B77">
-        <v>0.748</v>
+        <v>1.496</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>44</v>
@@ -1912,12 +1912,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2075,6 +2069,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2084,15 +2084,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2108,4 +2099,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9800A5-E617-4A24-A1F8-801268D9D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB92392-8918-4579-85FB-087D1891D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB92392-8918-4579-85FB-087D1891D86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53346063-44A1-4350-A8DC-ED78291E49C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,6 +1912,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2069,12 +2075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2084,6 +2084,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2099,13 +2108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53346063-44A1-4350-A8DC-ED78291E49C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF83D9E7-7906-402F-94EC-D31961F3AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
   <si>
     <t>field</t>
   </si>
@@ -90,9 +90,6 @@
     <t>kg/m^3</t>
   </si>
   <si>
-    <t>Pa</t>
-  </si>
-  <si>
     <t>Non dim.</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Aircraft.Geometry.Wing.mac</t>
-  </si>
-  <si>
-    <t>Aircraft.Certification.Performance.I_Level.Wing_loading_SI</t>
   </si>
   <si>
     <t>Aircraft.Certification.Aerodynamic_data.Max_Lift_Coefficient</t>
@@ -836,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -876,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -950,7 +944,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1.2250000000000001</v>
@@ -961,10 +955,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>378.98</v>
+        <v>1.58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -972,56 +966,56 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>1.58</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>42.3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0.498</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>42.3</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B16">
-        <v>0.498</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>15.24</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1030,32 +1024,32 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>15.24</v>
+        <v>7.62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>7.62</v>
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>5.2339000000000002</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="9">
-        <v>5.2339000000000002</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>2.589</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1063,9 +1057,9 @@
         <v>41</v>
       </c>
       <c r="B20">
-        <v>2.589</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>5.2</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1074,21 +1068,21 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>5.2</v>
+        <v>10.446</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B22">
-        <v>10.446</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1096,308 +1090,308 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
       <c r="B24">
-        <v>2.8839999999999999</v>
+        <v>0</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>0.25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>70</v>
+      <c r="A28" t="s">
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>51</v>
+      <c r="A29" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>0.52900000000000003</v>
+        <v>1.492</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
-        <v>52</v>
+      <c r="A30" t="s">
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>1.492</v>
+        <v>0</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="A32" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>4.0000000000000001E-3</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>2.8839999999999999</v>
+        <v>0</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="B36">
-        <v>0.05</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
       <c r="B38" s="10">
-        <v>7.9000000000000001E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="10">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="10">
         <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
+      <c r="C39" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1.5</v>
+      </c>
       <c r="C40" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="10">
-        <v>1.5</v>
+      <c r="A41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>-2.18378662E-2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>-2.18378662E-2</v>
+        <v>0.43606477249999998</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>-0.56312854999999995</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B43">
-        <v>0.43606477249999998</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="B44">
+        <v>-0.261519</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B44">
-        <v>-0.56312854999999995</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B45">
-        <v>-0.261519</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>68</v>
+      <c r="A46" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B46">
-        <v>6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>71</v>
+      <c r="A47" t="s">
+        <v>70</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>72</v>
+      <c r="A48" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8" t="s">
+        <v>0.498</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>0.498</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>74</v>
+      <c r="A50" t="s">
+        <v>73</v>
       </c>
       <c r="B50">
-        <v>0.498</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1405,10 +1399,10 @@
         <v>75</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1416,131 +1410,131 @@
         <v>77</v>
       </c>
       <c r="B52">
-        <v>0.14069999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>0.90800000000000003</v>
+        <v>0.154</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>0.154</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>1.9E-2</v>
+        <v>1.63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56">
-        <v>1.63</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57">
-        <v>2.5379999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58">
-        <v>0.627</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B59">
-        <v>0.97599999999999998</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>87</v>
       </c>
       <c r="B60">
-        <v>9.1300000000000006E-2</v>
+        <v>3.64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61">
-        <v>3.64</v>
+        <v>0.42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63">
+        <v>0.15</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B63">
-        <v>0.6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1548,98 +1542,98 @@
         <v>92</v>
       </c>
       <c r="B64">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65">
-        <v>0.18</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66">
-        <v>1.6379999999999999</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68">
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1647,21 +1641,22 @@
         <v>104</v>
       </c>
       <c r="B73">
-        <v>0.25</v>
+        <v>1.49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B74">
-        <v>1.49</v>
+        <f>B65+B73</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1669,44 +1664,43 @@
         <v>105</v>
       </c>
       <c r="B75">
-        <f>B66+B74</f>
-        <v>3.1280000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>0.15</v>
+        <v>1.496</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>1.496</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B78">
-        <v>0.31359999999999999</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1714,109 +1708,109 @@
         <v>110</v>
       </c>
       <c r="B79">
-        <v>0.39290000000000003</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86">
         <v>0.3</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1827,40 +1821,40 @@
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>34</v>
+      <c r="C92" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1871,29 +1865,18 @@
         <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>19</v>
+      <c r="C94" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1912,12 +1895,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2075,6 +2052,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2084,15 +2067,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2108,4 +2082,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF83D9E7-7906-402F-94EC-D31961F3AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BEB215-57AE-453E-9B18-0CEC31DA3387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>field</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Aircraft.Certification.Aircraft_Name.Attributes.designer</t>
   </si>
   <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
     <t>Non dim.</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Aircraft.Certification.Aerodynamic_data.Normal_Force_Curve_Slope</t>
   </si>
   <si>
-    <t>Aircraft.Certification.ISA_Condition.rho0</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Aerodynamic_data.alpha.value</t>
   </si>
   <si>
@@ -400,6 +394,15 @@
   </si>
   <si>
     <t>Aircraft.Geometry.Wing.freccia_posizione</t>
+  </si>
+  <si>
+    <t>Aircraft.Certification.ISA_Condition.Sea_level</t>
+  </si>
+  <si>
+    <t>Operative_ceiling</t>
+  </si>
+  <si>
+    <t>Theoretical_ceiling</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -476,7 +479,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -830,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -870,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -944,12 +946,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>1.58</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -958,53 +960,53 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>1.58</v>
+        <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>42.3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.498</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>42.3</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B15">
-        <v>0.498</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>15.24</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1013,32 +1015,32 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>15.24</v>
+        <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>7.62</v>
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.2339000000000002</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9">
-        <v>5.2339000000000002</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>2.589</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1046,9 +1048,9 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>2.589</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>5.2</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1057,21 +1059,21 @@
         <v>41</v>
       </c>
       <c r="B20">
-        <v>5.2</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>10.446</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B21">
-        <v>10.446</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1079,308 +1081,308 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
       <c r="B23">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>0.33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B25">
-        <v>0.33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>42</v>
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>68</v>
+      <c r="A27" t="s">
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>0.25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>1.492</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B28">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>1.492</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>52</v>
+      <c r="A31" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>42</v>
+        <v>0.33</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>0.33</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>0.05</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B35">
-        <v>0.05</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="10">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>18</v>
+      <c r="B37" s="9">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="10">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="10">
+        <v>58</v>
+      </c>
+      <c r="B38" s="9">
         <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>18</v>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="A40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>-2.18378662E-2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
+      <c r="B41">
+        <v>0.43606477249999998</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B41">
-        <v>-2.18378662E-2</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
+      <c r="B42">
+        <v>-0.56312854999999995</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
-        <v>0.43606477249999998</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="10" t="s">
+      <c r="B43">
+        <v>-0.261519</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B43">
-        <v>-0.56312854999999995</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="B44">
-        <v>-0.261519</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>18</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>66</v>
+      <c r="A45" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>69</v>
+      <c r="A46" t="s">
+        <v>68</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>42</v>
+      <c r="C46" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>70</v>
+      <c r="A47" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>0.498</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>0.498</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>72</v>
+      <c r="A49" t="s">
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>0.498</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1388,10 +1390,10 @@
         <v>73</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1399,131 +1401,131 @@
         <v>75</v>
       </c>
       <c r="B51">
-        <v>0.14069999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>0.90800000000000003</v>
+        <v>0.154</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53">
-        <v>0.154</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54">
-        <v>1.9E-2</v>
+        <v>1.63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>1.63</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56">
-        <v>2.5379999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B57">
-        <v>0.627</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B58">
-        <v>0.97599999999999998</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>85</v>
       </c>
       <c r="B59">
-        <v>9.1300000000000006E-2</v>
+        <v>3.64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60">
-        <v>3.64</v>
+        <v>0.42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>0.15</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B62">
-        <v>0.6</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1531,98 +1533,98 @@
         <v>90</v>
       </c>
       <c r="B63">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64">
-        <v>0.18</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65">
-        <v>1.6379999999999999</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67">
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1630,21 +1632,22 @@
         <v>102</v>
       </c>
       <c r="B72">
-        <v>0.25</v>
+        <v>1.49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73">
-        <v>1.49</v>
+        <f>B64+B72</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1652,44 +1655,43 @@
         <v>103</v>
       </c>
       <c r="B74">
-        <f>B65+B73</f>
-        <v>3.1280000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75">
-        <v>0.15</v>
+        <v>1.496</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76">
-        <v>1.496</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B77">
-        <v>0.31359999999999999</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1697,109 +1699,109 @@
         <v>108</v>
       </c>
       <c r="B78">
-        <v>0.39290000000000003</v>
+        <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>0.3</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1810,40 +1812,40 @@
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>32</v>
+      <c r="C91" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1854,28 +1856,50 @@
         <v>34</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="8" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95">
+        <v>1300</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96">
+        <v>3500</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1895,6 +1919,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2052,12 +2082,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2067,6 +2091,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2082,13 +2115,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BEB215-57AE-453E-9B18-0CEC31DA3387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B6D475B-AB33-4842-9131-4ECEDBE731CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
   <si>
     <t>field</t>
   </si>
@@ -204,25 +204,10 @@
     <t>Aircraft.Certification.Aerodynamic_data.e.value</t>
   </si>
   <si>
-    <t>Aircraft.Certification.Aerodynamic_data.Pol_coeff_k1.value</t>
-  </si>
-  <si>
-    <t>Aircraft.Certification.Aerodynamic_data.Pol_coeff_k2.value</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Aerodynamic_data.CL0.value</t>
   </si>
   <si>
     <t>Aircraft.Certification.Aerodynamic_data.CL_star.value</t>
-  </si>
-  <si>
-    <t>Aircraft.Certification.Aerodynamic_data.Alpha_PolCoeff_a.value</t>
-  </si>
-  <si>
-    <t>Aircraft.Certification.Aerodynamic_data.Alpha_PolCoeff_b.value</t>
-  </si>
-  <si>
-    <t>Aircraft.Certification.Aerodynamic_data.Alpha_PolCoeff_c.value</t>
   </si>
   <si>
     <t>Aircraft.Certification.Aerodynamic_data.CM0.value</t>
@@ -832,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C40" sqref="A38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1111,7 +1096,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -1122,7 +1107,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0.25</v>
@@ -1231,22 +1216,23 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="9">
-        <v>7.9000000000000001E-2</v>
+        <f>[1]Aircraft!$K$24</f>
+        <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="9">
-        <v>0.36499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>17</v>
@@ -1256,144 +1242,143 @@
       <c r="A38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="9">
-        <f>[1]Aircraft!$K$24</f>
-        <v>0.82195210959999987</v>
+      <c r="B38">
+        <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="9">
-        <v>1.5</v>
+      <c r="B39">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9" t="s">
-        <v>60</v>
+      <c r="A40" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>-2.18378662E-2</v>
+        <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="9" t="s">
-        <v>61</v>
+      <c r="A41" t="s">
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>0.43606477249999998</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>62</v>
+      <c r="A42" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B42">
-        <v>-0.56312854999999995</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>0.498</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>63</v>
+      <c r="A43" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>-0.261519</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>17</v>
+        <v>0.498</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
-        <v>64</v>
+      <c r="A44" t="s">
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>67</v>
+      <c r="A45" t="s">
+        <v>68</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>40</v>
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>17</v>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>69</v>
+      <c r="A47" t="s">
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>0.498</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>0.154</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>70</v>
+      <c r="A48" t="s">
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>0.498</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50">
-        <v>0.14069999999999999</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1401,10 +1386,10 @@
         <v>75</v>
       </c>
       <c r="B51">
-        <v>0.90800000000000003</v>
+        <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1412,51 +1397,51 @@
         <v>76</v>
       </c>
       <c r="B52">
-        <v>0.154</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>77</v>
+      <c r="A53" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>1.9E-2</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54">
-        <v>1.63</v>
+        <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55">
-        <v>2.5379999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>0.627</v>
+        <v>0.6</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
@@ -1464,21 +1449,21 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>0.97599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>83</v>
+      <c r="A58" t="s">
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>9.1300000000000006E-2</v>
+        <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>84</v>
@@ -1486,10 +1471,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59">
-        <v>3.64</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>40</v>
@@ -1497,10 +1482,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>40</v>
@@ -1508,21 +1493,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61">
-        <v>0.6</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>89</v>
@@ -1530,68 +1515,69 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63">
+        <v>0.2</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B63">
-        <v>0.18</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64">
-        <v>1.6379999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66">
-        <v>0.16500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68">
-        <v>0.2</v>
+        <f>B59+B67</f>
+        <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1599,10 +1585,10 @@
         <v>98</v>
       </c>
       <c r="B69">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1610,10 +1596,10 @@
         <v>99</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1621,77 +1607,76 @@
         <v>100</v>
       </c>
       <c r="B71">
-        <v>0.25</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B72">
-        <v>1.49</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73">
-        <f>B64+B72</f>
-        <v>3.1280000000000001</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75">
-        <v>1.496</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>0.31359999999999999</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>0.39290000000000003</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1699,10 +1684,10 @@
         <v>108</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1710,10 +1695,10 @@
         <v>109</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1721,10 +1706,10 @@
         <v>110</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1746,160 +1731,105 @@
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B85">
-        <v>0.3</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>118</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>30</v>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>29</v>
+      <c r="A90" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90">
+        <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95">
-        <v>1300</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96">
+      <c r="A91" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91">
         <v>3500</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1919,12 +1849,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2082,6 +2006,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2091,15 +2021,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2115,4 +2036,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B6D475B-AB33-4842-9131-4ECEDBE731CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F3BB20-9237-424F-9740-54EBAD9FE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
   <si>
     <t>field</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Theoretical_ceiling</t>
+  </si>
+  <si>
+    <t>Airloads_flag</t>
+  </si>
+  <si>
+    <t>OPEN VSP</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -468,6 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -817,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C40" sqref="A38:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1831,6 +1838,14 @@
       </c>
       <c r="C91" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1864,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2006,12 +2027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2021,6 +2036,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2036,13 +2060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F3BB20-9237-424F-9740-54EBAD9FE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB011CE8-664A-483C-9B98-D7EA27DBFDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
     <t>Airloads_flag</t>
   </si>
   <si>
-    <t>OPEN VSP</t>
+    <t>SCHRENK</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1864,12 +1864,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2027,6 +2021,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2036,15 +2036,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2060,4 +2051,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB011CE8-664A-483C-9B98-D7EA27DBFDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{498A2F53-7B6C-4B7D-BB01-3070839B211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498A2F53-7B6C-4B7D-BB01-3070839B211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0807A8-1C03-4DBC-8BAF-1C6A31D18947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
   <si>
     <t>field</t>
   </si>
@@ -394,6 +394,54 @@
   </si>
   <si>
     <t>SCHRENK</t>
+  </si>
+  <si>
+    <t>Takeoff_power</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Takeoff_rpm</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Max_Continous_power</t>
+  </si>
+  <si>
+    <t>Max_Continous_rpm</t>
+  </si>
+  <si>
+    <t>Correction_factor_flag1</t>
+  </si>
+  <si>
+    <t>FOUR STROKE</t>
+  </si>
+  <si>
+    <t>Correction_factor_flag2</t>
+  </si>
+  <si>
+    <t>Number of cylinder</t>
+  </si>
+  <si>
+    <t>Reduction_ratio</t>
+  </si>
+  <si>
+    <t>Non dimensional</t>
+  </si>
+  <si>
+    <t>Engine.Limit_side_load</t>
+  </si>
+  <si>
+    <t>Engine_mount_mass</t>
+  </si>
+  <si>
+    <t>Engine_accessories</t>
+  </si>
+  <si>
+    <t>Propeller_spinner</t>
   </si>
 </sst>
 </file>
@@ -824,17 +872,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="84.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1846,6 +1895,124 @@
       </c>
       <c r="B92" s="11" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93">
+        <v>73.5</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>5800</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95">
+        <v>69</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>5800</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100">
+        <v>1.33</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101">
+        <v>3.8</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102">
+        <v>76.7</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103">
+        <v>12.5</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1864,6 +2031,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2021,12 +2194,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2036,6 +2203,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2051,13 +2227,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0807A8-1C03-4DBC-8BAF-1C6A31D18947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF69B71D-F142-4848-A58B-7A79042A55B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
   <si>
     <t>field</t>
   </si>
@@ -442,6 +442,27 @@
   </si>
   <si>
     <t>Propeller_spinner</t>
+  </si>
+  <si>
+    <t>Propeller_polarmoment</t>
+  </si>
+  <si>
+    <t>kg*m^2</t>
+  </si>
+  <si>
+    <t>Engine_pitch_speed</t>
+  </si>
+  <si>
+    <t>rad/sec</t>
+  </si>
+  <si>
+    <t>Engine_yaw_speed</t>
+  </si>
+  <si>
+    <t>Propeller_blade_number</t>
+  </si>
+  <si>
+    <t>Engine_normal_load_factor</t>
   </si>
 </sst>
 </file>
@@ -872,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1935,7 +1956,7 @@
         <v>125</v>
       </c>
       <c r="B96">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>123</v>
@@ -2013,6 +2034,58 @@
       </c>
       <c r="C103" s="7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104">
+        <v>0.37</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106">
+        <v>2.5</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108">
+        <v>2.5</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF69B71D-F142-4848-A58B-7A79042A55B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FCF1BB-EA34-4B13-8678-893991868F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
   <si>
     <t>field</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Engine_normal_load_factor</t>
+  </si>
+  <si>
+    <t>C_h_delta</t>
+  </si>
+  <si>
+    <t>C_h_alfa</t>
   </si>
 </sst>
 </file>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2086,6 +2092,28 @@
       </c>
       <c r="C108" s="7" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109">
+        <v>-0.60560000000000003</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110">
+        <v>-0.40939999999999999</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2104,12 +2132,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2267,6 +2289,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2276,15 +2304,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2300,4 +2319,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FCF1BB-EA34-4B13-8678-893991868F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54147F8B-1E34-4281-B74F-53E09003CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2115,6 +2115,10 @@
       <c r="C110" s="7" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7"/>
+      <c r="C111" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,6 +2136,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2289,12 +2299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2304,6 +2308,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2319,13 +2332,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54147F8B-1E34-4281-B74F-53E09003CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3303C4C3-48A5-4561-BAF0-93BE8F6D4372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>Airloads_flag</t>
   </si>
   <si>
-    <t>SCHRENK</t>
-  </si>
-  <si>
     <t>Takeoff_power</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>C_h_alfa</t>
+  </si>
+  <si>
+    <t>OPEN VSP</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1921,97 +1921,97 @@
         <v>118</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>73.5</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>69</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
         <v>126</v>
-      </c>
-      <c r="B97" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101">
         <v>3.8</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102">
         <v>76.7</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103">
         <v>12.5</v>
@@ -2044,40 +2044,40 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2085,18 +2085,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
@@ -2136,12 +2136,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2299,6 +2293,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
@@ -2308,15 +2308,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2332,4 +2323,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3303C4C3-48A5-4561-BAF0-93BE8F6D4372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66605035-9B48-4951-8327-4F5079DC8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t>field</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>OPEN VSP</t>
+  </si>
+  <si>
+    <t>CL_MAX_FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non dimensional </t>
   </si>
 </sst>
 </file>
@@ -901,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2117,8 +2123,15 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111">
+        <v>1.9</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2127,15 +2140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2293,6 +2297,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2300,14 +2313,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2325,6 +2330,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66605035-9B48-4951-8327-4F5079DC8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D032D0C5-C26D-4DB6-9D14-F46B11E1419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
   <si>
     <t>field</t>
   </si>
@@ -471,10 +471,13 @@
     <t>OPEN VSP</t>
   </si>
   <si>
-    <t>CL_MAX_FLAPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non dimensional </t>
+  </si>
+  <si>
+    <t>CL_MAX_TAKEOFF</t>
+  </si>
+  <si>
+    <t>CL_MAX_LANDING</t>
   </si>
 </sst>
 </file>
@@ -905,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2124,13 +2127,24 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>2.1</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D032D0C5-C26D-4DB6-9D14-F46B11E1419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B12D75-251F-49F0-90A0-60EA5782B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
   <si>
     <t>field</t>
   </si>
@@ -478,6 +478,30 @@
   </si>
   <si>
     <t>CL_MAX_LANDING</t>
+  </si>
+  <si>
+    <t>S_elevator</t>
+  </si>
+  <si>
+    <t>c_elevator</t>
+  </si>
+  <si>
+    <t>chord_ratio_elevator</t>
+  </si>
+  <si>
+    <t>elevator_overhang</t>
+  </si>
+  <si>
+    <t>span_ratio_elevator</t>
+  </si>
+  <si>
+    <t>S_hinge_elevator</t>
+  </si>
+  <si>
+    <t>Chdeltaelevator</t>
+  </si>
+  <si>
+    <t>Chalfaelevator</t>
   </si>
 </sst>
 </file>
@@ -908,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2147,6 +2171,94 @@
         <v>130</v>
       </c>
     </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114">
+        <v>0.12</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115">
+        <v>0.35</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116">
+        <v>0.12</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117">
+        <v>0.8</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118">
+        <v>0.126</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119">
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2154,6 +2266,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2311,22 +2438,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2342,21 +2471,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B12D75-251F-49F0-90A0-60EA5782B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54197FCC-3681-4D17-A888-4EB45E5DF597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
   <si>
     <t>field</t>
   </si>
@@ -502,6 +502,36 @@
   </si>
   <si>
     <t>Chalfaelevator</t>
+  </si>
+  <si>
+    <t>S_vertical</t>
+  </si>
+  <si>
+    <t>chord_vertical</t>
+  </si>
+  <si>
+    <t>S_rudder</t>
+  </si>
+  <si>
+    <t>chord_rudder</t>
+  </si>
+  <si>
+    <t>chord_ratio_rudder_cf_c</t>
+  </si>
+  <si>
+    <t>overhang_rudder</t>
+  </si>
+  <si>
+    <t>span_ratio_rudder</t>
+  </si>
+  <si>
+    <t>max_deflection_rudder</t>
+  </si>
+  <si>
+    <t>Chdeltarudder</t>
+  </si>
+  <si>
+    <t>Chalfarudder</t>
   </si>
 </sst>
 </file>
@@ -932,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,7 +1992,7 @@
         <v>119</v>
       </c>
       <c r="B93">
-        <v>73.5</v>
+        <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>120</v>
@@ -1984,7 +2014,7 @@
         <v>123</v>
       </c>
       <c r="B95">
-        <v>69</v>
+        <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>120</v>
@@ -2047,7 +2077,7 @@
         <v>132</v>
       </c>
       <c r="B101">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>43</v>
@@ -2058,7 +2088,7 @@
         <v>133</v>
       </c>
       <c r="B102">
-        <v>76.7</v>
+        <v>18.5</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>43</v>
@@ -2069,7 +2099,7 @@
         <v>134</v>
       </c>
       <c r="B103">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>43</v>
@@ -2256,6 +2286,116 @@
         <v>-0.26900000000000002</v>
       </c>
       <c r="C120" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121">
+        <v>0.1022</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125">
+        <v>0.35</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126">
+        <v>0.12</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127">
+        <v>0.8</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128">
+        <v>25</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129">
+        <v>-0.45379999999999998</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54197FCC-3681-4D17-A888-4EB45E5DF597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223B669E-6E9C-4AD0-BD94-F7FC99567805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
   <si>
     <t>field</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Non dim.</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Regulation.SubpartC.Gustloads.Gust_speed_cruise</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Aircraft.Geometry.Aileron.S</t>
   </si>
   <si>
-    <t>m^2</t>
-  </si>
-  <si>
     <t>Aircraft.Geometry.Aileron.b</t>
   </si>
   <si>
@@ -532,6 +523,9 @@
   </si>
   <si>
     <t>Chalfarudder</t>
+  </si>
+  <si>
+    <t>meters per seconds</t>
   </si>
 </sst>
 </file>
@@ -964,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1003,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -1077,7 +1071,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1.58</v>
@@ -1088,7 +1082,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -1105,7 +1099,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1116,78 +1110,78 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0.498</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8">
         <v>5.2339000000000002</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>2.589</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>5.2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>10.446</v>
@@ -1198,51 +1192,51 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>2.8839999999999999</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>0.33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -1253,7 +1247,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0.25</v>
@@ -1264,40 +1258,40 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>0.52900000000000003</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>1.492</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>4.0000000000000001E-3</v>
@@ -1308,40 +1302,40 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>2.8839999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>0.33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>0.05</v>
@@ -1352,7 +1346,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9">
         <v>0.8</v>
@@ -1363,7 +1357,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9">
         <f>[1]Aircraft!$K$24</f>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9">
         <v>1.5</v>
@@ -1386,7 +1380,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>-0.261519</v>
@@ -1397,7 +1391,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>6.6000000000000003E-2</v>
@@ -1408,18 +1402,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1430,106 +1424,106 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0.498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0.498</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>0.14069999999999999</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>0.90800000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>0.154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1.9E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>0.627</v>
@@ -1540,51 +1534,51 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -1595,330 +1589,330 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B67">
         <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
         <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B69">
         <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B70">
         <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>17</v>
@@ -1926,10 +1920,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>17</v>
@@ -1937,10 +1931,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>17</v>
@@ -1948,199 +1942,199 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B101">
         <v>1.4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B102">
         <v>18.5</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103">
         <v>4.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2148,255 +2142,255 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B114">
         <v>0.12</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B118">
         <v>0.126</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B128">
         <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2406,18 +2400,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2579,18 +2573,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223B669E-6E9C-4AD0-BD94-F7FC99567805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCE2A1B-2D5B-4022-99FD-F79C7AFAAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,9 +459,6 @@
     <t>C_h_alfa</t>
   </si>
   <si>
-    <t>OPEN VSP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non dimensional </t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>meters per seconds</t>
+  </si>
+  <si>
+    <t>SCHRENK</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,7 +1099,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1132,7 +1132,7 @@
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1143,7 +1143,7 @@
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>115</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2175,18 +2175,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B112">
         <v>2.1</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B114">
         <v>0.12</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B115">
         <v>0.35</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B116">
         <v>0.12</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B117">
         <v>0.8</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118">
         <v>0.126</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125">
         <v>0.35</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126">
         <v>0.12</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127">
         <v>0.8</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128">
         <v>25</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
@@ -2400,18 +2400,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2573,18 +2573,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCE2A1B-2D5B-4022-99FD-F79C7AFAAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E260ECCA-DE9F-4204-B755-3BBD36DC83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
   <si>
     <t>field</t>
   </si>
@@ -258,9 +258,6 @@
     <t xml:space="preserve">Aircraft.Geometry.Aileron.eta_finale </t>
   </si>
   <si>
-    <t xml:space="preserve">Non dim. </t>
-  </si>
-  <si>
     <t>Normal_Force_Curve_Slope_deg</t>
   </si>
   <si>
@@ -525,7 +522,7 @@
     <t>meters per seconds</t>
   </si>
   <si>
-    <t>SCHRENK</t>
+    <t>OPEN VSP</t>
   </si>
 </sst>
 </file>
@@ -958,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1074,7 @@
         <v>1.58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1088,7 +1085,7 @@
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1099,7 +1096,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1110,7 +1107,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1132,7 +1129,7 @@
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1143,7 +1140,7 @@
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1187,7 +1184,7 @@
         <v>10.446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1242,7 +1239,7 @@
         <v>0.25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1253,7 +1250,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1297,7 +1294,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1341,7 +1338,7 @@
         <v>0.05</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1352,7 +1349,7 @@
         <v>0.8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1364,7 +1361,7 @@
         <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1375,7 +1372,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1386,7 +1383,7 @@
         <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1397,7 +1394,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1529,7 +1526,7 @@
         <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1540,45 +1537,45 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -1589,29 +1586,29 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
@@ -1622,7 +1619,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
@@ -1644,40 +1641,40 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1688,18 +1685,18 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67">
         <v>1.49</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69">
         <v>0.15</v>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>1.496</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
@@ -1755,18 +1752,18 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -1777,29 +1774,29 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1810,51 +1807,51 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1865,29 +1862,29 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1915,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1926,7 +1923,7 @@
         <v>32</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1937,12 +1934,12 @@
         <v>34</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>1300</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>3500</v>
@@ -1975,100 +1972,100 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" t="s">
         <v>122</v>
-      </c>
-      <c r="B97" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101">
         <v>1.4</v>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>18.5</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103">
         <v>4.5</v>
@@ -2101,40 +2098,40 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2142,18 +2139,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
@@ -2175,29 +2172,29 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
@@ -2208,7 +2205,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114">
         <v>0.12</v>
@@ -2219,40 +2216,40 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118">
         <v>0.126</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
@@ -2285,7 +2282,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
@@ -2307,7 +2304,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
@@ -2329,40 +2326,40 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128">
         <v>25</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
@@ -2384,7 +2381,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
@@ -2400,12 +2397,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2414,7 +2405,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2572,16 +2563,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2589,7 +2577,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2605,4 +2593,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E260ECCA-DE9F-4204-B755-3BBD36DC83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467E5F73-FE0B-40F9-A490-F0FA7DEBFA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
   <si>
     <t>field</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Amendement  1</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Regulation.SubpartC.Flightloads.nmax</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Aircraft.Certification.Aircraft_Name.Attributes.designer</t>
   </si>
   <si>
-    <t>Non dim.</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Regulation.SubpartC.Gustloads.Gust_speed_cruise</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>[-4; 0; 4; 8; 10; 12; 13]</t>
   </si>
   <si>
-    <t>degrees</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Aerodynamic_data.CL.value</t>
   </si>
   <si>
@@ -144,15 +135,9 @@
     <t>Aircraft.Geometry.Wing.S.value</t>
   </si>
   <si>
-    <t>squared meters</t>
-  </si>
-  <si>
     <t>Aircraft.Geometry.Wing.b.value</t>
   </si>
   <si>
-    <t>meters</t>
-  </si>
-  <si>
     <t>Aircraft.Geometry.Wing.AR.value</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>Aircraft.Geometry.Horizontal.croot</t>
   </si>
   <si>
-    <t xml:space="preserve">meters </t>
-  </si>
-  <si>
     <t>Aircraft.Geometry.Horizontal.sweep</t>
   </si>
   <si>
@@ -438,9 +420,6 @@
     <t>Engine_pitch_speed</t>
   </si>
   <si>
-    <t>rad/sec</t>
-  </si>
-  <si>
     <t>Engine_yaw_speed</t>
   </si>
   <si>
@@ -519,10 +498,28 @@
     <t>Chalfarudder</t>
   </si>
   <si>
-    <t>meters per seconds</t>
-  </si>
-  <si>
     <t>OPEN VSP</t>
+  </si>
+  <si>
+    <t>g's</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deg </t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>rad/s</t>
   </si>
 </sst>
 </file>
@@ -955,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,10 +977,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -991,10 +988,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1035,7 +1032,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1046,1092 +1043,1092 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-1.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1.58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0.498</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8">
         <v>5.2339000000000002</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>2.589</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>5.2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>10.446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>2.8839999999999999</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>0.33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0.25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.52900000000000003</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1.492</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>2.8839999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>0.33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>0.05</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="9">
         <v>0.8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" s="9">
         <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" s="9">
         <v>1.5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>0.498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>0.498</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>0.14069999999999999</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>0.90800000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>0.154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>1.9E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B54">
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>0.6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B67">
         <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
         <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B90">
         <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B101">
         <v>1.4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>18.5</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B103">
         <v>4.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2139,255 +2136,255 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>0.12</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>0.126</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2397,15 +2394,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2563,6 +2551,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2570,14 +2567,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2595,6 +2584,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft.xlsx
+++ b/initialization/Aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467E5F73-FE0B-40F9-A490-F0FA7DEBFA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B2A0AB-0A57-46D8-8CE4-AF7585E78ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
@@ -2552,18 +2552,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,18 +2585,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>